--- a/docs/StructureDefinition-NivelEducacional.xlsx
+++ b/docs/StructureDefinition-NivelEducacional.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T11:42:08-04:00</t>
+    <t>2023-08-10T15:46:58-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
